--- a/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
+++ b/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\5.Formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA3851-F13D-4FA9-BFEB-285601E3C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF201A94-40DE-4455-BEC3-E0F392E50012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11196" yWindow="348" windowWidth="12192" windowHeight="12792" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
+    <workbookView xWindow="11196" yWindow="0" windowWidth="12192" windowHeight="13056" firstSheet="1" activeTab="2" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Regras_Realce" sheetId="1" r:id="rId1"/>
+    <sheet name="Primeiros_ultimos" sheetId="2" r:id="rId2"/>
+    <sheet name="Barras_escalas" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1 (4)" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha1 (5)" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Planilha1 (2)'!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Barras_escalas!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Planilha1 (4)'!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Planilha1 (5)'!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Primeiros_ultimos!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regras_Realce!$A$1:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="29">
   <si>
     <t>Produto</t>
   </si>
@@ -236,7 +242,117 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -264,66 +380,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -658,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85119179-AB60-45F0-BD5C-916293281F4B}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,20 +996,20 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Nacional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Internacional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>1000000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -963,6 +1019,589 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E79D41F-431C-4C41-BFB8-B8CB60278868}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>135175</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3784900</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7418</v>
+      </c>
+      <c r="D5" s="5">
+        <v>207704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>71371</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2212501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>145414</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4217006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>28010</v>
+      </c>
+      <c r="D9" s="5">
+        <v>942462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30523</v>
+      </c>
+      <c r="D10" s="5">
+        <v>732552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>47498</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1187450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>22285</v>
+      </c>
+      <c r="D13" s="5">
+        <v>668550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>71711</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1936197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2200125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>127481</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2677101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D17" xr:uid="{85119179-AB60-45F0-BD5C-916293281F4B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="25"/>
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" bottom="1" rank="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF437162-3E08-4465-9A62-E94A03D4ADED}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>135175</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3784900</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7418</v>
+      </c>
+      <c r="D5" s="5">
+        <v>207704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>71371</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2212501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>145414</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4217006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>28010</v>
+      </c>
+      <c r="D9" s="5">
+        <v>942462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30523</v>
+      </c>
+      <c r="D10" s="5">
+        <v>732552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>47498</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1187450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>22285</v>
+      </c>
+      <c r="D13" s="5">
+        <v>668550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>71711</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1936197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2200125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>127481</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2677101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D17" xr:uid="{85119179-AB60-45F0-BD5C-916293281F4B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAAACBA-96A0-4C5F-AA0E-308FAC8B8405}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1247,4 +1886,292 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39917C7E-6B08-4271-AC0A-A4B1690F96E5}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>135175</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3784900</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7418</v>
+      </c>
+      <c r="D5" s="5">
+        <v>207704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>71371</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2212501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>145414</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4217006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>28010</v>
+      </c>
+      <c r="D9" s="5">
+        <v>942462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30523</v>
+      </c>
+      <c r="D10" s="5">
+        <v>732552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>47498</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1187450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>22285</v>
+      </c>
+      <c r="D13" s="5">
+        <v>668550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>71711</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1936197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2200125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>127481</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2677101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D17" xr:uid="{85119179-AB60-45F0-BD5C-916293281F4B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
+++ b/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\5.Formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF201A94-40DE-4455-BEC3-E0F392E50012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD15236-D47F-4CB7-96D8-B7C9C10876A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11196" yWindow="0" windowWidth="12192" windowHeight="13056" firstSheet="1" activeTab="2" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
   </bookViews>
@@ -1317,12 +1317,13 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" customWidth="1"/>
   </cols>
@@ -1367,16 +1368,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="4">
-        <v>45000</v>
+        <v>145414</v>
       </c>
       <c r="D3" s="5">
-        <v>1000000</v>
+        <v>4217006</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>27</v>
@@ -1407,196 +1408,239 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>7418</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="5">
-        <v>207704</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>71371</v>
+        <v>127481</v>
       </c>
       <c r="D6" s="5">
-        <v>2212501</v>
+        <v>2677101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>71371</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>2212501</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>145414</v>
+        <v>25000</v>
       </c>
       <c r="D8" s="5">
-        <v>4217006</v>
+        <v>2200125</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
-        <v>28010</v>
+        <v>71711</v>
       </c>
       <c r="D9" s="5">
-        <v>942462</v>
+        <v>1936197</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>30523</v>
+        <v>47498</v>
       </c>
       <c r="D10" s="5">
-        <v>732552</v>
+        <v>1187450</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>47498</v>
+        <v>28010</v>
       </c>
       <c r="D12" s="5">
-        <v>1187450</v>
+        <v>942462</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="4">
-        <v>22285</v>
+        <v>30523</v>
       </c>
       <c r="D13" s="5">
-        <v>668550</v>
+        <v>732552</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>71711</v>
+        <v>22285</v>
       </c>
       <c r="D14" s="5">
-        <v>1936197</v>
+        <v>668550</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>25000</v>
+        <v>7418</v>
       </c>
       <c r="D15" s="5">
-        <v>2200125</v>
+        <v>207704</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>127481</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>2677101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D17" xr:uid="{85119179-AB60-45F0-BD5C-916293281F4B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
-      <sortCondition ref="A1:A17"/>
+      <sortCondition descending="1" ref="D1:D17"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A44D49A9-52DB-4F04-9489-760114A6F9BC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A44D49A9-52DB-4F04-9489-760114A6F9BC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
+++ b/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\5.Formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD15236-D47F-4CB7-96D8-B7C9C10876A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E58E0C-5858-4431-BFBD-4BE67E30AA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11196" yWindow="0" windowWidth="12192" windowHeight="13056" firstSheet="1" activeTab="2" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
+    <workbookView xWindow="11196" yWindow="0" windowWidth="12192" windowHeight="13056" firstSheet="3" activeTab="4" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Regras_Realce" sheetId="1" r:id="rId1"/>
     <sheet name="Primeiros_ultimos" sheetId="2" r:id="rId2"/>
     <sheet name="Barras_escalas" sheetId="3" r:id="rId3"/>
-    <sheet name="Planilha1 (4)" sheetId="4" r:id="rId4"/>
-    <sheet name="Planilha1 (5)" sheetId="5" r:id="rId5"/>
+    <sheet name="Icones" sheetId="4" r:id="rId4"/>
+    <sheet name="Linha_inteira" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha1 (6)" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Barras_escalas!$A$1:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Planilha1 (4)'!$A$1:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Planilha1 (5)'!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Icones!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Linha_inteira!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Planilha1 (6)'!$A$1:$D$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Primeiros_ultimos!$A$1:$D$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regras_Realce!$A$1:$D$17</definedName>
   </definedNames>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
   <si>
     <t>Produto</t>
   </si>
@@ -223,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -237,6 +239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF437162-3E08-4465-9A62-E94A03D4ADED}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,9 +1622,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFF00"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FF00B0F0"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1648,7 +1653,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAAACBA-96A0-4C5F-AA0E-308FAC8B8405}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>135175</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3784900</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7418</v>
+      </c>
+      <c r="D5" s="5">
+        <v>207704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
+        <v>71371</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2212501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>145414</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4217006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>28010</v>
+      </c>
+      <c r="D9" s="5">
+        <v>942462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8">
+        <v>30523</v>
+      </c>
+      <c r="D10" s="5">
+        <v>732552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>47498</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1187450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
+        <v>22285</v>
+      </c>
+      <c r="D13" s="5">
+        <v>668550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <v>71711</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1936197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <v>25000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2200125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <v>127481</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2677101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D17" xr:uid="{85119179-AB60-45F0-BD5C-916293281F4B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="iconSet" priority="1">
+      <iconSet showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="30000"/>
+        <cfvo type="num" val="70000"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39917C7E-6B08-4271-AC0A-A4B1690F96E5}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1932,8 +2236,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39917C7E-6B08-4271-AC0A-A4B1690F96E5}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47448E60-4B41-4D13-A213-B1D189454129}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">

--- a/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
+++ b/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\5.Formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E58E0C-5858-4431-BFBD-4BE67E30AA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F735BBC-7AE4-4E02-9B4A-5190B1C1AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11196" yWindow="0" windowWidth="12192" windowHeight="13056" firstSheet="3" activeTab="4" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
   </bookViews>
@@ -247,7 +247,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1001,20 +1022,20 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Nacional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"Internacional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>1000000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1307,11 +1328,11 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="25"/>
-    <cfRule type="top10" dxfId="3" priority="2" percent="1" bottom="1" rank="25"/>
+    <cfRule type="top10" dxfId="7" priority="3" percent="1" rank="25"/>
+    <cfRule type="top10" dxfId="6" priority="2" percent="1" bottom="1" rank="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1953,7 +1974,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2232,6 +2253,11 @@
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A2:D17">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$C2&gt;75000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
+++ b/2.Excel/hands-on/5.Formatacao/3.Formatacao_condicional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\5.Formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F735BBC-7AE4-4E02-9B4A-5190B1C1AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6CE0B-30B1-48CB-893A-6FA4A92355B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11196" yWindow="0" windowWidth="12192" windowHeight="13056" firstSheet="3" activeTab="4" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
   </bookViews>
@@ -18,13 +18,11 @@
     <sheet name="Barras_escalas" sheetId="3" r:id="rId3"/>
     <sheet name="Icones" sheetId="4" r:id="rId4"/>
     <sheet name="Linha_inteira" sheetId="5" r:id="rId5"/>
-    <sheet name="Planilha1 (6)" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Barras_escalas!$A$1:$D$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Icones!$A$1:$D$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Linha_inteira!$A$1:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Planilha1 (6)'!$A$1:$D$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Primeiros_ultimos!$A$1:$D$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regras_Realce!$A$1:$D$17</definedName>
   </definedNames>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="29">
   <si>
     <t>Produto</t>
   </si>
@@ -247,21 +245,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -286,86 +270,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1022,20 +926,20 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Nacional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Internacional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>1000000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1328,11 +1232,11 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="top10" dxfId="7" priority="3" percent="1" rank="25"/>
-    <cfRule type="top10" dxfId="6" priority="2" percent="1" bottom="1" rank="25"/>
+    <cfRule type="top10" dxfId="3" priority="3" percent="1" rank="25"/>
+    <cfRule type="top10" dxfId="2" priority="2" percent="1" bottom="1" rank="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="aboveAverage" dxfId="3" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1973,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39917C7E-6B08-4271-AC0A-A4B1690F96E5}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2254,298 +2158,10 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:D17">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2&gt;75000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47448E60-4B41-4D13-A213-B1D189454129}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4">
-        <v>35000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45000</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>135175</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3784900</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7418</v>
-      </c>
-      <c r="D5" s="5">
-        <v>207704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
-        <v>71371</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2212501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4">
-        <v>145414</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4217006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>28010</v>
-      </c>
-      <c r="D9" s="5">
-        <v>942462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4">
-        <v>30523</v>
-      </c>
-      <c r="D10" s="5">
-        <v>732552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <v>47498</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1187450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4">
-        <v>22285</v>
-      </c>
-      <c r="D13" s="5">
-        <v>668550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4">
-        <v>71711</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1936197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4">
-        <v>25000</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2200125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4">
-        <v>127481</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2677101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D17" xr:uid="{85119179-AB60-45F0-BD5C-916293281F4B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
-      <sortCondition ref="A1:A17"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>